--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Success</t>
   </si>
   <si>
-    <t>xxxx</t>
-  </si>
-  <si>
     <t>LoginTest</t>
   </si>
   <si>
@@ -90,10 +87,7 @@
     <t>ProfileTest</t>
   </si>
   <si>
-    <t>Handgreat99</t>
-  </si>
-  <si>
-    <t>venkipriya</t>
+    <t>incorrect password</t>
   </si>
 </sst>
 </file>
@@ -510,7 +504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -518,7 +512,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -526,7 +520,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -542,7 +536,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -587,9 +581,6 @@
       <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
@@ -605,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
@@ -613,7 +604,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2"/>
     </row>
@@ -628,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
@@ -646,12 +637,6 @@
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>incorrect password</t>
+  </si>
+  <si>
+    <t>Handgreat99</t>
+  </si>
+  <si>
+    <t>SendMessageTest</t>
+  </si>
+  <si>
+    <t>ChatFriend</t>
   </si>
 </sst>
 </file>
@@ -167,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -177,6 +186,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +536,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -533,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +594,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
@@ -638,7 +659,51 @@
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -647,9 +712,10 @@
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
